--- a/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
@@ -753,46 +753,46 @@
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.22</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.27</v>
       </c>
       <c r="W2" t="n">
         <v>13.5</v>
@@ -807,16 +807,16 @@
         <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE2" t="n">
         <v>12.5</v>
@@ -825,67 +825,67 @@
         <v>45</v>
       </c>
       <c r="AG2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO2" t="n">
         <v>18.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>90</v>
       </c>
       <c r="AR2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS2" t="n">
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ2" t="n">
         <v>32</v>
       </c>
       <c r="BA2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BB2" t="n">
         <v>175</v>
@@ -941,79 +941,79 @@
         <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R3" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V3" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W3" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X3" t="n">
         <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE3" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF3" t="n">
         <v>35</v>
       </c>
       <c r="AG3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>11.75</v>
@@ -1022,16 +1022,16 @@
         <v>45</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>14</v>
@@ -1046,7 +1046,7 @@
         <v>120</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU3" t="n">
         <v>6.4</v>
@@ -1061,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB3" t="n">
         <v>175</v>
@@ -1111,124 +1111,124 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L4" t="n">
         <v>2.92</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="U4" t="n">
         <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>18</v>
       </c>
       <c r="AM4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>65</v>
       </c>
       <c r="AR4" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU4" t="n">
         <v>6.9</v>
@@ -1240,7 +1240,7 @@
         <v>4.35</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>19.5</v>
@@ -1293,148 +1293,148 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
         <v>3.5</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
         <v>23</v>
       </c>
-      <c r="AL5" t="n">
-        <v>19</v>
-      </c>
       <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
         <v>26</v>
       </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1672,7 +1672,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1681,31 +1681,31 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.57</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1750,7 +1750,7 @@
         <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1774,10 +1774,10 @@
         <v>301</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
@@ -1842,55 +1842,55 @@
         <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
         <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.1</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1902,10 +1902,10 @@
         <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1920,10 +1920,10 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
         <v>13</v>
@@ -1932,13 +1932,13 @@
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
@@ -1953,16 +1953,16 @@
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>5.5</v>
@@ -1971,19 +1971,19 @@
         <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2227,16 +2227,16 @@
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
         <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
@@ -3155,10 +3155,10 @@
         <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W15" t="n">
         <v>8.5</v>
@@ -3170,7 +3170,7 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
         <v>12</v>
@@ -3182,10 +3182,10 @@
         <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
@@ -3215,13 +3215,13 @@
         <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3233,16 +3233,16 @@
         <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
         <v>29</v>
@@ -3251,7 +3251,7 @@
         <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -3480,52 +3480,52 @@
         <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -3540,40 +3540,40 @@
         <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
         <v>5</v>
@@ -3582,22 +3582,22 @@
         <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS17" t="n">
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3606,7 +3606,7 @@
         <v>4.33</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -4053,10 +4053,10 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K21" t="n">
         <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -4247,25 +4247,25 @@
         <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W21" t="n">
         <v>13</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="n">
         <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
@@ -4289,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ21" t="n">
         <v>8.5</v>
@@ -4310,7 +4310,7 @@
         <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>67</v>
@@ -4325,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4334,13 +4334,13 @@
         <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY21" t="n">
         <v>19</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA21" t="n">
         <v>51</v>
@@ -4405,22 +4405,22 @@
         <v>2.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R22" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
         <v>1.36</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L25" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4957,16 +4957,16 @@
         <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
         <v>1.3</v>
@@ -4975,16 +4975,16 @@
         <v>3.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W25" t="n">
         <v>8.5</v>
       </c>
       <c r="X25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -4993,7 +4993,7 @@
         <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
         <v>21</v>
@@ -5035,13 +5035,13 @@
         <v>3.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP25" t="n">
         <v>17</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
         <v>41</v>
@@ -5056,16 +5056,16 @@
         <v>7.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX25" t="n">
         <v>23</v>
       </c>
       <c r="AY25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ25" t="n">
         <v>81</v>
@@ -5077,7 +5077,7 @@
         <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
@@ -5115,28 +5115,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="J26" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K26" t="n">
         <v>2.4</v>
       </c>
       <c r="L26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
         <v>1.18</v>
@@ -5157,37 +5157,37 @@
         <v>3.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
         <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -5196,34 +5196,34 @@
         <v>151</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.5</v>
       </c>
       <c r="AK26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL26" t="n">
         <v>13</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>12</v>
       </c>
       <c r="AM26" t="n">
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP26" t="n">
         <v>23</v>
       </c>
-      <c r="AP26" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR26" t="n">
         <v>81</v>
@@ -5244,13 +5244,13 @@
         <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>17</v>
       </c>
       <c r="AZ26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA26" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
         <v>3.35</v>
@@ -941,7 +941,7 @@
         <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L3" t="n">
         <v>3.6</v>
@@ -956,19 +956,19 @@
         <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="Q3" t="n">
         <v>1.47</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="S3" t="n">
         <v>1.26</v>
       </c>
       <c r="T3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.45</v>
@@ -977,22 +977,22 @@
         <v>2.55</v>
       </c>
       <c r="W3" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>8.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
@@ -1010,13 +1010,13 @@
         <v>175</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>45</v>
@@ -1028,16 +1028,16 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP3" t="n">
         <v>14</v>
       </c>
       <c r="AQ3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
         <v>45</v>
@@ -1046,7 +1046,7 @@
         <v>120</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
         <v>6.4</v>
@@ -1055,19 +1055,19 @@
         <v>40</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ3" t="n">
         <v>70</v>
       </c>
       <c r="BA3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB3" t="n">
         <v>175</v>
@@ -1111,91 +1111,91 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.78</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z4" t="n">
         <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH4" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
@@ -1204,55 +1204,55 @@
         <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AN4" t="n">
         <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY4" t="n">
         <v>21</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="AZ4" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA4" t="n">
         <v>90</v>
       </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>80</v>
-      </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1293,88 +1293,88 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>1.83</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
         <v>23</v>
       </c>
-      <c r="AA5" t="n">
-        <v>21</v>
-      </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1395,28 +1395,28 @@
         <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
         <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>4.75</v>
@@ -1431,10 +1431,10 @@
         <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1496,7 +1496,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
@@ -1804,7 +1804,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1890,7 +1890,7 @@
         <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1899,7 +1899,7 @@
         <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1908,7 +1908,7 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1932,22 +1932,22 @@
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -2752,52 +2752,52 @@
         <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.1</v>
       </c>
-      <c r="L13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2812,10 +2812,10 @@
         <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2824,13 +2824,13 @@
         <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2842,7 +2842,7 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>29</v>
@@ -2854,28 +2854,28 @@
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX13" t="n">
         <v>15</v>
@@ -2893,10 +2893,10 @@
         <v>151</v>
       </c>
       <c r="BC13" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD13" t="n">
         <v>126</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2931,55 +2931,55 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.2</v>
       </c>
       <c r="J14" t="n">
         <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -2997,25 +2997,25 @@
         <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>12</v>
@@ -3030,13 +3030,13 @@
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
         <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
         <v>41</v>
@@ -3045,16 +3045,16 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -3063,7 +3063,7 @@
         <v>17</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
         <v>51</v>
@@ -3072,10 +3072,10 @@
         <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD14" t="n">
         <v>126</v>
@@ -3116,10 +3116,10 @@
         <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
         <v>2.2</v>
@@ -3131,37 +3131,37 @@
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
         <v>8.5</v>
@@ -3173,28 +3173,28 @@
         <v>13</v>
       </c>
       <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
         <v>12</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>7.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3227,13 +3227,13 @@
         <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3242,7 +3242,7 @@
         <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY15" t="n">
         <v>29</v>
@@ -3251,10 +3251,10 @@
         <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>501</v>
@@ -3325,10 +3325,10 @@
         <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -3677,10 +3677,10 @@
         <v>2.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -3689,10 +3689,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3710,10 +3710,10 @@
         <v>10</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
         <v>41</v>
@@ -3722,10 +3722,10 @@
         <v>29</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3740,10 +3740,10 @@
         <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
@@ -3761,7 +3761,7 @@
         <v>5.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
         <v>29</v>
@@ -4205,28 +4205,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.85</v>
       </c>
       <c r="J21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
         <v>2.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
@@ -4235,25 +4235,25 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -4265,31 +4265,31 @@
         <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
         <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
         <v>8.5</v>
@@ -4301,7 +4301,7 @@
         <v>15</v>
       </c>
       <c r="AM21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN21" t="n">
         <v>6</v>
@@ -4310,7 +4310,7 @@
         <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>67</v>
@@ -4319,13 +4319,13 @@
         <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4337,7 +4337,7 @@
         <v>10</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
         <v>34</v>
@@ -4346,7 +4346,7 @@
         <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
         <v>501</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H22" t="n">
         <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
@@ -4423,22 +4423,22 @@
         <v>1.93</v>
       </c>
       <c r="S22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
         <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
         <v>13</v>
@@ -4447,13 +4447,13 @@
         <v>41</v>
       </c>
       <c r="AA22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="n">
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
         <v>7</v>
@@ -4465,19 +4465,19 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
         <v>7.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>8.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
         <v>15</v>
@@ -4504,7 +4504,7 @@
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
@@ -4519,7 +4519,7 @@
         <v>10</v>
       </c>
       <c r="AY22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
         <v>34</v>
@@ -4528,7 +4528,7 @@
         <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC22" t="n">
         <v>126</v>
@@ -4751,58 +4751,58 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
         <v>9.5</v>
@@ -4814,16 +4814,16 @@
         <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
         <v>6.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
@@ -4838,7 +4838,7 @@
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4847,10 +4847,10 @@
         <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO24" t="n">
         <v>13</v>
@@ -4868,13 +4868,13 @@
         <v>126</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
         <v>7.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4883,19 +4883,19 @@
         <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC24" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD24" t="n">
         <v>126</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
         <v>2.25</v>
@@ -4948,7 +4948,7 @@
         <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4981,7 +4981,7 @@
         <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X25" t="n">
         <v>9</v>
@@ -4990,7 +4990,7 @@
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
@@ -5017,7 +5017,7 @@
         <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>15</v>
@@ -5032,7 +5032,7 @@
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>8.5</v>
@@ -5068,7 +5068,7 @@
         <v>26</v>
       </c>
       <c r="AZ25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA25" t="n">
         <v>81</v>
@@ -5136,19 +5136,19 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O26" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S26" t="n">
         <v>1.29</v>
@@ -5178,10 +5178,10 @@
         <v>29</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD26" t="n">
         <v>8</v>
@@ -5193,7 +5193,7 @@
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH26" t="n">
         <v>9.5</v>
@@ -5226,10 +5226,10 @@
         <v>67</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT26" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L2" t="n">
         <v>2.47</v>
@@ -774,7 +774,7 @@
         <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="Q2" t="n">
         <v>1.65</v>
@@ -783,10 +783,10 @@
         <v>2.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U2" t="n">
         <v>1.6</v>
@@ -795,19 +795,19 @@
         <v>2.22</v>
       </c>
       <c r="W2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -834,10 +834,10 @@
         <v>10.25</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
         <v>14</v>
@@ -846,25 +846,25 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="n">
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU2" t="n">
         <v>6.8</v>
@@ -873,10 +873,10 @@
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AY2" t="n">
         <v>16.5</v>
@@ -885,7 +885,7 @@
         <v>32</v>
       </c>
       <c r="BA2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB2" t="n">
         <v>175</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I3" t="n">
         <v>3.35</v>
@@ -941,7 +941,7 @@
         <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
         <v>3.6</v>
@@ -956,7 +956,7 @@
         <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q3" t="n">
         <v>1.47</v>
@@ -974,25 +974,25 @@
         <v>1.45</v>
       </c>
       <c r="V3" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W3" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.5</v>
@@ -1010,13 +1010,13 @@
         <v>175</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK3" t="n">
         <v>45</v>
@@ -1028,7 +1028,7 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AO3" t="n">
         <v>9.25</v>
@@ -1055,19 +1055,19 @@
         <v>40</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AX3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
         <v>70</v>
       </c>
       <c r="BA3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB3" t="n">
         <v>175</v>
@@ -1111,55 +1111,55 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.07</v>
       </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
         <v>14.5</v>
@@ -1168,31 +1168,31 @@
         <v>10.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AI4" t="n">
         <v>11.5</v>
@@ -1201,58 +1201,58 @@
         <v>9.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>70</v>
       </c>
       <c r="AR4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AX4" t="n">
         <v>12.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1299,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1308,13 +1308,13 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,13 +1335,13 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
@@ -1356,10 +1356,10 @@
         <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1374,7 +1374,7 @@
         <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1386,10 +1386,10 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>4.5</v>
@@ -1398,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1422,10 +1422,10 @@
         <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
@@ -1434,7 +1434,7 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1804,7 +1804,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.75</v>
@@ -1926,7 +1926,7 @@
         <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
@@ -1971,13 +1971,13 @@
         <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
@@ -2024,7 +2024,7 @@
         <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
         <v>4.5</v>
@@ -2039,40 +2039,40 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.8</v>
       </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2087,19 +2087,19 @@
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
         <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
         <v>13</v>
@@ -2114,7 +2114,7 @@
         <v>51</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
@@ -2132,13 +2132,13 @@
         <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
         <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2227,16 +2227,16 @@
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2415,10 +2415,10 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2597,10 +2597,10 @@
         <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2896,7 +2896,7 @@
         <v>501</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2943,7 +2943,7 @@
         <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
         <v>3.6</v>
@@ -2955,16 +2955,16 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -2982,7 +2982,7 @@
         <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
@@ -2997,7 +2997,7 @@
         <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3024,7 +3024,7 @@
         <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
@@ -3143,10 +3143,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3325,10 +3325,10 @@
         <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3659,28 +3659,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -3689,10 +3689,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3719,7 +3719,7 @@
         <v>41</v>
       </c>
       <c r="AA18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
@@ -3743,13 +3743,13 @@
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>17</v>
@@ -3770,7 +3770,7 @@
         <v>67</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS18" t="n">
         <v>201</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
@@ -3877,10 +3877,10 @@
         <v>2.15</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
         <v>1.57</v>
@@ -3889,13 +3889,13 @@
         <v>2.25</v>
       </c>
       <c r="W19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
         <v>29</v>
@@ -3904,10 +3904,10 @@
         <v>21</v>
       </c>
       <c r="AB19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
@@ -3922,7 +3922,7 @@
         <v>126</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
@@ -3934,7 +3934,7 @@
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="n">
         <v>23</v>
@@ -3958,7 +3958,7 @@
         <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
         <v>7</v>
@@ -3967,13 +3967,13 @@
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
         <v>41</v>
@@ -3982,7 +3982,7 @@
         <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
         <v>401</v>
@@ -4235,10 +4235,10 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
         <v>1.4</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J22" t="n">
         <v>4.5</v>
@@ -4402,7 +4402,7 @@
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4423,10 +4423,10 @@
         <v>1.93</v>
       </c>
       <c r="S22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
         <v>1.8</v>
@@ -4435,7 +4435,7 @@
         <v>1.95</v>
       </c>
       <c r="W22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X22" t="n">
         <v>21</v>
@@ -4450,7 +4450,7 @@
         <v>34</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
@@ -4471,7 +4471,7 @@
         <v>7.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ22" t="n">
         <v>8.5</v>
@@ -4489,22 +4489,22 @@
         <v>6</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP22" t="n">
         <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS22" t="n">
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
@@ -4513,10 +4513,10 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
@@ -4569,55 +4569,55 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
@@ -4626,16 +4626,16 @@
         <v>10</v>
       </c>
       <c r="Z23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA23" t="n">
         <v>23</v>
       </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4644,28 +4644,28 @@
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
         <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
         <v>4.5</v>
@@ -4674,7 +4674,7 @@
         <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>51</v>
@@ -4683,16 +4683,16 @@
         <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
         <v>4.75</v>
@@ -4701,7 +4701,7 @@
         <v>17</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
         <v>51</v>
@@ -4710,7 +4710,7 @@
         <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="n">
         <v>126</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -4802,7 +4802,7 @@
         <v>9.5</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
         <v>9.5</v>
@@ -4832,7 +4832,7 @@
         <v>151</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
         <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J26" t="n">
         <v>4.33</v>
@@ -5196,7 +5196,7 @@
         <v>126</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>10</v>
@@ -5214,7 +5214,7 @@
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>21</v>
@@ -5250,7 +5250,7 @@
         <v>17</v>
       </c>
       <c r="AZ26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA26" t="n">
         <v>41</v>
@@ -5259,7 +5259,7 @@
         <v>101</v>
       </c>
       <c r="BC26" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD26" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
         <v>2.47</v>
@@ -783,10 +783,10 @@
         <v>2.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="U2" t="n">
         <v>1.6</v>
@@ -795,13 +795,13 @@
         <v>2.22</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
         <v>45</v>
@@ -810,7 +810,7 @@
         <v>27</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
@@ -828,16 +828,16 @@
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI2" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
         <v>14</v>
@@ -852,19 +852,19 @@
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS2" t="n">
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU2" t="n">
         <v>6.8</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
         <v>3.35</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L3" t="n">
         <v>3.6</v>
@@ -950,73 +950,73 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="R3" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="S3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="U3" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="V3" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="W3" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>45</v>
@@ -1025,55 +1025,55 @@
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO3" t="n">
         <v>9.25</v>
       </c>
       <c r="AP3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AV3" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AX3" t="n">
         <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ3" t="n">
         <v>70</v>
       </c>
       <c r="BA3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB3" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC3" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BD3" t="n">
         <v>81</v>
@@ -1111,145 +1111,145 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T4" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO4" t="n">
         <v>14</v>
       </c>
-      <c r="AF4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR4" t="n">
         <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BA4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB4" t="n">
         <v>250</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1344,16 +1344,16 @@
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
         <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1371,31 +1371,31 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1419,10 +1419,10 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1726,7 +1726,7 @@
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1738,7 +1738,7 @@
         <v>501</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
         <v>10</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -2218,7 +2218,7 @@
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2233,10 +2233,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2281,7 +2281,7 @@
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
         <v>8</v>
@@ -2335,7 +2335,7 @@
         <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>34</v>
@@ -2415,10 +2415,10 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2532,7 +2532,7 @@
         <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
         <v>3.9</v>
@@ -2576,7 +2576,7 @@
         <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2585,22 +2585,22 @@
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2627,25 +2627,25 @@
         <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH12" t="n">
         <v>12</v>
@@ -2711,7 +2711,7 @@
         <v>251</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -2773,16 +2773,16 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2827,7 +2827,7 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
@@ -2949,19 +2949,19 @@
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
         <v>2</v>
@@ -2973,13 +2973,13 @@
         <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
@@ -2994,13 +2994,13 @@
         <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
@@ -3012,7 +3012,7 @@
         <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -3024,7 +3024,7 @@
         <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
@@ -3045,7 +3045,7 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -3325,10 +3325,10 @@
         <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3501,31 +3501,31 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
         <v>2.05</v>
       </c>
       <c r="R17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.8</v>
       </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -3537,13 +3537,13 @@
         <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3558,13 +3558,13 @@
         <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
@@ -3579,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
         <v>26</v>
@@ -3591,10 +3591,10 @@
         <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3609,13 +3609,13 @@
         <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB17" t="n">
         <v>151</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
@@ -3859,10 +3859,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
@@ -3898,10 +3898,10 @@
         <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3928,10 +3928,10 @@
         <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>19</v>
@@ -3988,7 +3988,7 @@
         <v>401</v>
       </c>
       <c r="BD19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -4053,10 +4053,10 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J21" t="n">
         <v>4.5</v>
@@ -4220,7 +4220,7 @@
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4229,22 +4229,22 @@
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
         <v>1.8</v>
@@ -4259,7 +4259,7 @@
         <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
         <v>41</v>
@@ -4274,7 +4274,7 @@
         <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4283,13 +4283,13 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
         <v>7.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ21" t="n">
         <v>8.5</v>
@@ -4307,22 +4307,22 @@
         <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS21" t="n">
         <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
@@ -4331,10 +4331,10 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY21" t="n">
         <v>21</v>
@@ -4575,22 +4575,22 @@
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -4605,10 +4605,10 @@
         <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
@@ -4623,7 +4623,7 @@
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
         <v>26</v>
@@ -4638,7 +4638,7 @@
         <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4686,7 +4686,7 @@
         <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
@@ -4775,16 +4775,16 @@
         <v>12</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>1.36</v>
@@ -4793,10 +4793,10 @@
         <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W24" t="n">
         <v>9.5</v>
@@ -4823,7 +4823,7 @@
         <v>6.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
@@ -4832,7 +4832,7 @@
         <v>151</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
@@ -4847,7 +4847,7 @@
         <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN24" t="n">
         <v>4.5</v>
@@ -4883,7 +4883,7 @@
         <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ24" t="n">
         <v>51</v>
@@ -4963,10 +4963,10 @@
         <v>4.33</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S25" t="n">
         <v>1.3</v>
@@ -5115,58 +5115,58 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L26" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>13</v>
@@ -5175,16 +5175,16 @@
         <v>41</v>
       </c>
       <c r="AA26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -5193,10 +5193,10 @@
         <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI26" t="n">
         <v>10</v>
@@ -5205,7 +5205,7 @@
         <v>8.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>13</v>
@@ -5217,22 +5217,22 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR26" t="n">
         <v>67</v>
       </c>
       <c r="AS26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU26" t="n">
         <v>7.5</v>
@@ -5244,7 +5244,7 @@
         <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
@@ -747,34 +747,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L2" t="n">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q2" t="n">
         <v>1.65</v>
@@ -789,37 +789,37 @@
         <v>3.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB2" t="n">
         <v>27</v>
       </c>
-      <c r="AB2" t="n">
-        <v>30</v>
-      </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>45</v>
@@ -828,37 +828,37 @@
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP2" t="n">
         <v>21</v>
       </c>
-      <c r="AN2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR2" t="n">
         <v>90</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>110</v>
       </c>
       <c r="AS2" t="n">
         <v>250</v>
@@ -867,25 +867,25 @@
         <v>3.05</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BA2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB2" t="n">
         <v>175</v>
@@ -929,52 +929,52 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I3" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J3" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="K3" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="S3" t="n">
         <v>1.24</v>
       </c>
       <c r="T3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V3" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
@@ -983,70 +983,70 @@
         <v>13.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
         <v>8.75</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>11.25</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG3" t="n">
         <v>150</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK3" t="n">
         <v>45</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR3" t="n">
         <v>40</v>
       </c>
       <c r="AS3" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AU3" t="n">
         <v>6.2</v>
@@ -1055,19 +1055,19 @@
         <v>35</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AX3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY3" t="n">
         <v>17</v>
       </c>
-      <c r="AY3" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BA3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BB3" t="n">
         <v>150</v>
@@ -1111,88 +1111,88 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.65</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.62</v>
-      </c>
       <c r="J4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.2</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.15</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG4" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AI4" t="n">
         <v>12.5</v>
@@ -1201,40 +1201,40 @@
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN4" t="n">
         <v>4.55</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS4" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW4" t="n">
         <v>4.5</v>
@@ -1243,16 +1243,16 @@
         <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
         <v>60</v>
       </c>
       <c r="BA4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1341,13 +1341,13 @@
         <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>29</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1377,19 +1377,19 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>4.75</v>
@@ -1419,13 +1419,13 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
         <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
@@ -1434,7 +1434,7 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.1</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1687,10 +1687,10 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1711,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
         <v>29</v>
@@ -1726,7 +1726,7 @@
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1738,16 +1738,16 @@
         <v>501</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>23</v>
@@ -1756,7 +1756,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -1798,13 +1798,13 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -2039,28 +2039,28 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
         <v>1.8</v>
@@ -2078,7 +2078,7 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
@@ -2102,10 +2102,10 @@
         <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
@@ -2120,7 +2120,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
         <v>8.5</v>
@@ -2132,13 +2132,13 @@
         <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
         <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2433,22 +2433,22 @@
         <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
@@ -2466,16 +2466,16 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>21</v>
@@ -2484,19 +2484,19 @@
         <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
@@ -2511,7 +2511,7 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
         <v>15</v>
@@ -2773,16 +2773,16 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
@@ -2973,16 +2973,16 @@
         <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
@@ -2994,13 +2994,13 @@
         <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
@@ -3012,7 +3012,7 @@
         <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -3045,7 +3045,7 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -3125,7 +3125,7 @@
         <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -3134,7 +3134,7 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -3143,10 +3143,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3155,16 +3155,16 @@
         <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
         <v>8</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
@@ -3182,13 +3182,13 @@
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
         <v>201</v>
@@ -3218,7 +3218,7 @@
         <v>8.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
         <v>26</v>
@@ -3260,7 +3260,7 @@
         <v>501</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -3325,10 +3325,10 @@
         <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3477,40 +3477,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
         <v>2.88</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3519,10 +3519,10 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.95</v>
       </c>
       <c r="W17" t="n">
         <v>9</v>
@@ -3531,40 +3531,40 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
         <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
@@ -3582,16 +3582,16 @@
         <v>19</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR17" t="n">
         <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
         <v>2.63</v>
@@ -3603,7 +3603,7 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
         <v>13</v>
@@ -3618,7 +3618,7 @@
         <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>501</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3865,28 +3865,28 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
         <v>11</v>
@@ -3907,7 +3907,7 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
@@ -3916,7 +3916,7 @@
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
         <v>126</v>
@@ -3925,7 +3925,7 @@
         <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
         <v>10</v>
@@ -3940,10 +3940,10 @@
         <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
         <v>21</v>
@@ -3955,10 +3955,10 @@
         <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU19" t="n">
         <v>7</v>
@@ -3973,7 +3973,7 @@
         <v>13</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
         <v>41</v>
@@ -3982,13 +3982,13 @@
         <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC19" t="n">
         <v>401</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -4023,16 +4023,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.6</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
@@ -4041,22 +4041,22 @@
         <v>4.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4077,22 +4077,22 @@
         <v>9.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
         <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
         <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4125,13 +4125,13 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4208,52 +4208,52 @@
         <v>4.33</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W21" t="n">
         <v>11</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W21" t="n">
-        <v>12</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -4271,10 +4271,10 @@
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4283,10 +4283,10 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>8.5</v>
@@ -4301,7 +4301,7 @@
         <v>15</v>
       </c>
       <c r="AM21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN21" t="n">
         <v>6</v>
@@ -4310,7 +4310,7 @@
         <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="n">
         <v>81</v>
@@ -4319,13 +4319,13 @@
         <v>101</v>
       </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -4334,7 +4334,7 @@
         <v>3.75</v>
       </c>
       <c r="AX21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY21" t="n">
         <v>21</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
         <v>1.95</v>
@@ -4599,10 +4599,10 @@
         <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
         <v>1.53</v>
@@ -4611,16 +4611,16 @@
         <v>2.38</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W23" t="n">
         <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
@@ -4638,16 +4638,16 @@
         <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH23" t="n">
         <v>7</v>
@@ -4671,7 +4671,7 @@
         <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
         <v>2.25</v>
@@ -4948,7 +4948,7 @@
         <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -4963,10 +4963,10 @@
         <v>4.33</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
         <v>1.3</v>
@@ -4981,7 +4981,7 @@
         <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
         <v>9</v>
@@ -4990,7 +4990,7 @@
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
@@ -5017,7 +5017,7 @@
         <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
         <v>15</v>
@@ -5032,7 +5032,7 @@
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO25" t="n">
         <v>8.5</v>
@@ -5068,7 +5068,7 @@
         <v>26</v>
       </c>
       <c r="AZ25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA25" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="H2" t="n">
         <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>2.22</v>
       </c>
       <c r="L2" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
@@ -783,40 +783,40 @@
         <v>2.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
         <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -825,70 +825,70 @@
         <v>45</v>
       </c>
       <c r="AG2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP2" t="n">
         <v>20</v>
       </c>
-      <c r="AL2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AR2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS2" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="AX2" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="BA2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BB2" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -929,52 +929,52 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.42</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.47</v>
       </c>
       <c r="L3" t="n">
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="U3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V3" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>13.5</v>
@@ -995,28 +995,28 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AE3" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
         <v>150</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK3" t="n">
         <v>45</v>
@@ -1025,13 +1025,13 @@
         <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AP3" t="n">
         <v>13.5</v>
@@ -1040,13 +1040,13 @@
         <v>30</v>
       </c>
       <c r="AR3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS3" t="n">
         <v>110</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AU3" t="n">
         <v>6.2</v>
@@ -1055,25 +1055,25 @@
         <v>35</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AX3" t="n">
         <v>15.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB3" t="n">
         <v>150</v>
       </c>
       <c r="BC3" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD3" t="n">
         <v>81</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
         <v>2.02</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -1159,22 +1159,22 @@
         <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1192,40 +1192,40 @@
         <v>800</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AI4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT4" t="n">
         <v>2.57</v>
@@ -1237,19 +1237,19 @@
         <v>65</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BA4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
         <v>300</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
         <v>2.75</v>
@@ -1854,7 +1854,7 @@
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1869,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
@@ -1881,13 +1881,13 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1908,7 +1908,7 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1923,25 +1923,25 @@
         <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
         <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1965,10 +1965,10 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
@@ -2078,7 +2078,7 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
@@ -2120,7 +2120,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
         <v>8.5</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -2218,7 +2218,7 @@
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2245,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>12</v>
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.5</v>
@@ -2305,7 +2305,7 @@
         <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2350,7 +2350,7 @@
         <v>501</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J11" t="n">
         <v>3.25</v>
@@ -2520,7 +2520,7 @@
         <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
         <v>67</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>2.25</v>
@@ -2633,13 +2633,13 @@
         <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
@@ -2648,13 +2648,13 @@
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
         <v>51</v>
@@ -2675,7 +2675,7 @@
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2693,7 +2693,7 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
         <v>29</v>
@@ -2711,7 +2711,7 @@
         <v>251</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J13" t="n">
         <v>2.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2791,25 +2791,25 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
         <v>9</v>
       </c>
-      <c r="X13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
         <v>26</v>
@@ -2830,28 +2830,28 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
@@ -2878,7 +2878,7 @@
         <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
         <v>23</v>
@@ -2949,22 +2949,22 @@
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
@@ -3155,16 +3155,16 @@
         <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
@@ -3197,10 +3197,10 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
         <v>51</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
@@ -3498,7 +3498,7 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -3561,13 +3561,13 @@
         <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>19</v>
@@ -3588,7 +3588,7 @@
         <v>67</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS17" t="n">
         <v>251</v>
@@ -3597,7 +3597,7 @@
         <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3606,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
         <v>23</v>
@@ -4029,13 +4029,13 @@
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J20" t="n">
         <v>2.63</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
         <v>4.33</v>
@@ -4047,34 +4047,34 @@
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -4086,10 +4086,10 @@
         <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
@@ -4101,10 +4101,10 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
         <v>19</v>
@@ -4119,7 +4119,7 @@
         <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
@@ -4140,7 +4140,7 @@
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
         <v>8</v>
@@ -4161,7 +4161,7 @@
         <v>67</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
         <v>201</v>
@@ -4205,28 +4205,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
         <v>1.3</v>
@@ -4247,25 +4247,25 @@
         <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
         <v>15</v>
       </c>
       <c r="Z21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA21" t="n">
         <v>41</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>34</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
@@ -4274,28 +4274,28 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH21" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7</v>
-      </c>
       <c r="AI21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ21" t="n">
         <v>8.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
         <v>15</v>
@@ -4304,19 +4304,19 @@
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP21" t="n">
         <v>34</v>
       </c>
       <c r="AQ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS21" t="n">
         <v>251</v>
@@ -4331,16 +4331,16 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY21" t="n">
         <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA21" t="n">
         <v>51</v>
@@ -4575,7 +4575,7 @@
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
         <v>3.5</v>
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
@@ -4629,7 +4629,7 @@
         <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB23" t="n">
         <v>41</v>
@@ -4638,7 +4638,7 @@
         <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>19</v>
@@ -4689,13 +4689,13 @@
         <v>2.38</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX23" t="n">
         <v>17</v>
@@ -4763,28 +4763,28 @@
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S24" t="n">
         <v>1.36</v>
@@ -4793,10 +4793,10 @@
         <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W24" t="n">
         <v>9.5</v>
@@ -4823,7 +4823,7 @@
         <v>6.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
@@ -4832,13 +4832,13 @@
         <v>151</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4847,7 +4847,7 @@
         <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN24" t="n">
         <v>4.5</v>
@@ -4883,7 +4883,7 @@
         <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-01.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.25</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.22</v>
-      </c>
       <c r="L2" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -771,10 +771,10 @@
         <v>8.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q2" t="n">
         <v>1.65</v>
@@ -783,31 +783,31 @@
         <v>2.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V2" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="W2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
         <v>35</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
         <v>25</v>
@@ -816,7 +816,7 @@
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -831,31 +831,31 @@
         <v>9.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR2" t="n">
         <v>80</v>
@@ -864,28 +864,28 @@
         <v>200</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AX2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB2" t="n">
         <v>200</v>
@@ -929,76 +929,76 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="J3" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R3" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="T3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.42</v>
       </c>
       <c r="V3" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -1010,64 +1010,64 @@
         <v>150</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AJ3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>11.25</v>
       </c>
-      <c r="AK3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AP3" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
         <v>6.2</v>
       </c>
       <c r="AV3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AX3" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="BA3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB3" t="n">
         <v>150</v>
@@ -1111,100 +1111,100 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
         <v>2.02</v>
       </c>
       <c r="L4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
         <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T4" t="n">
         <v>2.57</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>28</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD4" t="n">
         <v>5.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH4" t="n">
         <v>7.4</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM4" t="n">
         <v>40</v>
@@ -1213,46 +1213,46 @@
         <v>4.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
         <v>2.57</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
         <v>65</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BA4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1293,64 +1293,64 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>26</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
         <v>7.5</v>
@@ -1380,19 +1380,19 @@
         <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1407,31 +1407,31 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>4.33</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
@@ -1496,7 +1496,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
@@ -1529,10 +1529,10 @@
         <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>11</v>
@@ -1544,25 +1544,25 @@
         <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>67</v>
@@ -1604,10 +1604,10 @@
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>101</v>
@@ -1616,10 +1616,10 @@
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1657,64 +1657,64 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>29</v>
@@ -1723,46 +1723,46 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH7" t="n">
         <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
@@ -1771,34 +1771,34 @@
         <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1896,16 +1896,16 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1920,34 +1920,34 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
         <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
       </c>
       <c r="AN8" t="n">
         <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1965,10 +1965,10 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -2030,7 +2030,7 @@
         <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -2039,10 +2039,10 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2093,7 +2093,7 @@
         <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2102,7 +2102,7 @@
         <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2245,25 +2245,25 @@
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
         <v>12</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
         <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2275,28 +2275,28 @@
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
         <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>23</v>
@@ -2305,13 +2305,13 @@
         <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
@@ -2329,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
         <v>11</v>
@@ -2338,7 +2338,7 @@
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2415,10 +2415,10 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2433,7 +2433,7 @@
         <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -2466,7 +2466,7 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
@@ -2493,7 +2493,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
@@ -2520,7 +2520,7 @@
         <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>67</v>
@@ -2567,40 +2567,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2609,22 +2609,22 @@
         <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
         <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2642,10 +2642,10 @@
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH12" t="n">
         <v>13</v>
@@ -2663,10 +2663,10 @@
         <v>41</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO12" t="n">
         <v>8.5</v>
@@ -2687,10 +2687,10 @@
         <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
         <v>7</v>
@@ -2699,16 +2699,16 @@
         <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC12" t="n">
         <v>151</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2791,25 +2791,25 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
         <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
         <v>26</v>
@@ -2830,28 +2830,28 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
         <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
@@ -2943,28 +2943,28 @@
         <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -2979,7 +2979,7 @@
         <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -2997,7 +2997,7 @@
         <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -3134,19 +3134,19 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3161,46 +3161,46 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
         <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
         <v>51</v>
@@ -3215,19 +3215,19 @@
         <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
         <v>3.25</v>
@@ -3239,7 +3239,7 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX15" t="n">
         <v>26</v>
@@ -3260,7 +3260,7 @@
         <v>501</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -3319,10 +3319,10 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
         <v>2</v>
@@ -3337,28 +3337,28 @@
         <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>15</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
         <v>10</v>
@@ -3373,7 +3373,7 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
@@ -3394,7 +3394,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
@@ -3421,16 +3421,16 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
         <v>101</v>
@@ -3483,7 +3483,7 @@
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -3498,7 +3498,7 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -3528,13 +3528,13 @@
         <v>9</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="n">
         <v>29</v>
@@ -3543,7 +3543,7 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3576,7 +3576,7 @@
         <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO17" t="n">
         <v>19</v>
@@ -3597,7 +3597,7 @@
         <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3871,10 +3871,10 @@
         <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
         <v>1.3</v>
@@ -3889,19 +3889,19 @@
         <v>2.38</v>
       </c>
       <c r="W19" t="n">
+        <v>13</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
         <v>11</v>
       </c>
-      <c r="X19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>10</v>
-      </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3925,37 +3925,37 @@
         <v>11</v>
       </c>
       <c r="AI19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO19" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>13</v>
       </c>
       <c r="AP19" t="n">
         <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT19" t="n">
         <v>3.4</v>
@@ -3967,10 +3967,10 @@
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY19" t="n">
         <v>19</v>
@@ -3985,7 +3985,7 @@
         <v>101</v>
       </c>
       <c r="BC19" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -4259,7 +4259,7 @@
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
         <v>51</v>
@@ -4289,7 +4289,7 @@
         <v>6.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ21" t="n">
         <v>8.5</v>
@@ -4334,7 +4334,7 @@
         <v>3.6</v>
       </c>
       <c r="AX21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY21" t="n">
         <v>21</v>
@@ -4387,46 +4387,46 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
         <v>1.8</v>
@@ -4435,28 +4435,28 @@
         <v>1.95</v>
       </c>
       <c r="W22" t="n">
+        <v>10</v>
+      </c>
+      <c r="X22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="n">
         <v>12</v>
       </c>
-      <c r="X22" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>13</v>
-      </c>
       <c r="Z22" t="n">
         <v>41</v>
       </c>
       <c r="AA22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB22" t="n">
         <v>34</v>
       </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4471,40 +4471,40 @@
         <v>7.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>26</v>
       </c>
       <c r="AN22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="n">
         <v>29</v>
       </c>
       <c r="AQ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR22" t="n">
         <v>81</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>101</v>
       </c>
       <c r="AS22" t="n">
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
@@ -4513,16 +4513,16 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX22" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
         <v>51</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
         <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
         <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -4617,28 +4617,28 @@
         <v>1.7</v>
       </c>
       <c r="W23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
         <v>7</v>
       </c>
-      <c r="X23" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
         <v>19</v>
@@ -4653,25 +4653,25 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
       </c>
       <c r="AK23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL23" t="n">
         <v>29</v>
       </c>
-      <c r="AL23" t="n">
-        <v>26</v>
-      </c>
       <c r="AM23" t="n">
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
@@ -4695,22 +4695,22 @@
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
         <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC23" t="n">
         <v>126</v>
@@ -4751,28 +4751,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
@@ -4799,22 +4799,22 @@
         <v>2.1</v>
       </c>
       <c r="W24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="n">
         <v>23</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>26</v>
       </c>
       <c r="AC24" t="n">
         <v>12</v>
@@ -4832,34 +4832,34 @@
         <v>151</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
         <v>51</v>
@@ -4877,19 +4877,19 @@
         <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
         <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
         <v>151</v>
@@ -4939,73 +4939,73 @@
         <v>4.1</v>
       </c>
       <c r="I25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L25" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V25" t="n">
         <v>2.2</v>
       </c>
-      <c r="S25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB25" t="n">
         <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD25" t="n">
         <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
@@ -5026,13 +5026,13 @@
         <v>51</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>8.5</v>
@@ -5050,7 +5050,7 @@
         <v>101</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU25" t="n">
         <v>7.5</v>
@@ -5068,7 +5068,7 @@
         <v>26</v>
       </c>
       <c r="AZ25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA25" t="n">
         <v>81</v>
@@ -5077,7 +5077,7 @@
         <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD25" t="n">
         <v>151</v>
